--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="TSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="THouse" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -169,6 +169,13 @@
       </rPr>
       <t>-2-3</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +607,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,9 +648,11 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>22</v>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -158,24 +158,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-2-3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +597,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,10 +639,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>22</v>
@@ -707,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -728,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>2000</v>
@@ -749,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>3000</v>
@@ -770,7 +760,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>4000</v>
@@ -791,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>5000</v>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
   </si>
   <si>
     <t>MaxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包含区域数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>T</t>
     </r>
@@ -166,6 +154,43 @@
   </si>
   <si>
     <t>1-2-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房屋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID*100+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>房屋等级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋最大等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含区域数（暂时无用字段）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +622,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -605,7 +630,7 @@
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.8984375" bestFit="1" customWidth="1"/>
@@ -616,22 +641,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -639,22 +664,22 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -664,23 +689,23 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -694,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -715,13 +740,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -736,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>24400</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -757,13 +782,13 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>4000</v>
+        <v>63280</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -778,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -868,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -150,10 +150,6 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2-3-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +187,10 @@
   </si>
   <si>
     <t>包含区域数（暂时无用字段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.8984375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.19921875" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -689,14 +689,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>31</v>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -743,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>6000</v>
@@ -764,7 +764,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>24400</v>
@@ -785,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>63280</v>
@@ -806,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>0</v>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>Cells</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,6 +187,18 @@
   </si>
   <si>
     <t>1-1|2-2|3-3|4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,9 +281,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,8 +635,8 @@
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -664,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>21</v>
@@ -689,17 +694,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>29</v>
@@ -722,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
         <v>400</v>
@@ -743,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>6000</v>
@@ -764,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>24400</v>
@@ -785,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>63280</v>
@@ -806,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -814,55 +819,311 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" s="7"/>
-      <c r="F10"/>
+      <c r="A10">
+        <v>2001</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <v>400</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" s="10"/>
-      <c r="F11"/>
+      <c r="A11">
+        <v>2002</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11">
+        <v>6000</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" s="7"/>
-      <c r="F12"/>
+      <c r="A12">
+        <v>2003</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>24400</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" s="10"/>
-      <c r="F13"/>
+      <c r="A13">
+        <v>2004</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>63280</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" s="10"/>
-      <c r="F14"/>
+      <c r="A14">
+        <v>2005</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3001</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>400</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3002</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>6000</v>
+      </c>
       <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3003</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3004</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>63280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3005</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4001</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4002</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4003</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4004</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>63280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4005</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -75,27 +75,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Des</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "THouse" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -199,6 +183,181 @@
   </si>
   <si>
     <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>户型图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卫</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>mageId</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,505 +783,622 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="64.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
         <v>400</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
       <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
         <v>6000</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
         <v>24400</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
       <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
         <v>63280</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
       <c r="B10">
+        <v>2001</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
       <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
         <v>400</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
       <c r="B11">
+        <v>2001</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
         <v>6000</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
       <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
         <v>24400</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
       <c r="B13">
+        <v>2001</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
         <v>63280</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
       <c r="B14">
+        <v>2001</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3001</v>
       </c>
       <c r="B15">
+        <v>3001</v>
+      </c>
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
       <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15">
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15">
         <v>400</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3002</v>
       </c>
       <c r="B16">
+        <v>3001</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16">
+      <c r="F16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16">
         <v>6000</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3003</v>
       </c>
       <c r="B17">
+        <v>3001</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
       <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17">
+      <c r="F17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17">
         <v>24400</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3004</v>
       </c>
       <c r="B18">
+        <v>3001</v>
+      </c>
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
       <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>3</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18">
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18">
         <v>63280</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3005</v>
       </c>
       <c r="B19">
+        <v>3001</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19">
+      <c r="F19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4001</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20">
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20">
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4002</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
         <v>6000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4003</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22">
+      <c r="F22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22">
         <v>24400</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4004</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23">
+      <c r="F23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23">
         <v>63280</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4005</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24">
+      <c r="F24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24">
         <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -174,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1|2-2|3-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1|2-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区域类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,133 +205,6 @@
   </si>
   <si>
     <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卫</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>I</t>
     </r>
     <r>
@@ -358,6 +223,62 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四居室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5|6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5|6-6|7-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5|6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5|6-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4|5-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1|2-2|3-3|4-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级花费=房屋最后一个区域的升级花费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,15 +718,15 @@
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>23</v>
@@ -823,15 +744,18 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -852,17 +776,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6" t="s">
@@ -872,16 +796,19 @@
         <v>31</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -898,16 +825,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G5">
-        <v>400</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -927,13 +854,13 @@
         <v>32</v>
       </c>
       <c r="G6">
-        <v>6000</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6600</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -953,13 +880,13 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>24400</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25650</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -979,13 +906,13 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>63280</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65000</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1007,11 +934,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -1022,22 +949,22 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G10">
-        <v>400</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -1048,22 +975,22 @@
         <v>2</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G11">
-        <v>6000</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7800</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -1074,22 +1001,22 @@
         <v>2</v>
       </c>
       <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G12">
-        <v>24400</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>28500</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1100,22 +1027,22 @@
         <v>2</v>
       </c>
       <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G13">
-        <v>63280</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70200</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1126,50 +1053,50 @@
         <v>2</v>
       </c>
       <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G14">
+        <v>112200</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2006</v>
+      </c>
+      <c r="B15">
+        <v>2001</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="H15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>3001</v>
-      </c>
-      <c r="B15">
-        <v>3001</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15">
-        <v>400</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3002</v>
       </c>
       <c r="B16">
         <v>3001</v>
@@ -1178,24 +1105,24 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G16">
-        <v>6000</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>39</v>
+        <v>1050</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B17">
         <v>3001</v>
@@ -1204,24 +1131,24 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G17">
-        <v>24400</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
+        <v>9100</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B18">
         <v>3001</v>
@@ -1230,24 +1157,24 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G18">
-        <v>63280</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
+        <v>31500</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B19">
         <v>3001</v>
@@ -1256,102 +1183,102 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
+        <v>75600</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4001</v>
+        <v>3005</v>
       </c>
       <c r="B20">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G20">
-        <v>400</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
+        <v>119000</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4002</v>
+        <v>3006</v>
       </c>
       <c r="B21">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G21">
-        <v>6000</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
+        <v>172200</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4003</v>
+        <v>3007</v>
       </c>
       <c r="B22">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G22">
-        <v>24400</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="B23">
         <v>4001</v>
@@ -1360,24 +1287,24 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G23">
-        <v>63280</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
+        <v>1400</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="B24">
         <v>4001</v>
@@ -1386,19 +1313,175 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G24">
+        <v>10500</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4003</v>
+      </c>
+      <c r="B25">
+        <v>4001</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25">
+        <v>34650</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4004</v>
+      </c>
+      <c r="B26">
+        <v>4001</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26">
+        <v>81200</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4005</v>
+      </c>
+      <c r="B27">
+        <v>4001</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27">
+        <v>126000</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4006</v>
+      </c>
+      <c r="B28">
+        <v>4001</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1">
+        <v>180600</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4007</v>
+      </c>
+      <c r="B29">
+        <v>4001</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1">
+        <v>245000</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4008</v>
+      </c>
+      <c r="B30">
+        <v>4001</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>40</v>
+      <c r="H30" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -707,7 +707,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,7 +828,7 @@
         <v>51</v>
       </c>
       <c r="G5">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>40</v>
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="G6">
-        <v>6600</v>
+        <v>660</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>40</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>25650</v>
+        <v>2565</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>40</v>
@@ -906,7 +906,7 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>65000</v>
+        <v>6500</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>40</v>
@@ -958,7 +958,7 @@
         <v>49</v>
       </c>
       <c r="G10">
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>41</v>
@@ -984,7 +984,7 @@
         <v>44</v>
       </c>
       <c r="G11">
-        <v>7800</v>
+        <v>780</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>41</v>
@@ -1010,7 +1010,7 @@
         <v>44</v>
       </c>
       <c r="G12">
-        <v>28500</v>
+        <v>2850</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>41</v>
@@ -1036,7 +1036,7 @@
         <v>44</v>
       </c>
       <c r="G13">
-        <v>70200</v>
+        <v>7020</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>41</v>
@@ -1062,7 +1062,7 @@
         <v>44</v>
       </c>
       <c r="G14">
-        <v>112200</v>
+        <v>11220</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>41</v>
@@ -1114,7 +1114,7 @@
         <v>48</v>
       </c>
       <c r="G16">
-        <v>1050</v>
+        <v>105</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>42</v>
@@ -1140,7 +1140,7 @@
         <v>47</v>
       </c>
       <c r="G17">
-        <v>9100</v>
+        <v>910</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>42</v>
@@ -1166,7 +1166,7 @@
         <v>45</v>
       </c>
       <c r="G18">
-        <v>31500</v>
+        <v>3150</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>42</v>
@@ -1192,7 +1192,7 @@
         <v>45</v>
       </c>
       <c r="G19">
-        <v>75600</v>
+        <v>7560</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>42</v>
@@ -1218,7 +1218,7 @@
         <v>45</v>
       </c>
       <c r="G20">
-        <v>119000</v>
+        <v>11900</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>42</v>
@@ -1244,7 +1244,7 @@
         <v>45</v>
       </c>
       <c r="G21">
-        <v>172200</v>
+        <v>17219.999999999996</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>42</v>
@@ -1296,7 +1296,7 @@
         <v>46</v>
       </c>
       <c r="G23">
-        <v>1400</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>43</v>
@@ -1322,7 +1322,7 @@
         <v>46</v>
       </c>
       <c r="G24">
-        <v>10500</v>
+        <v>1050</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>46</v>
       </c>
       <c r="G25">
-        <v>34650</v>
+        <v>3465</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>43</v>
@@ -1374,7 +1374,7 @@
         <v>46</v>
       </c>
       <c r="G26">
-        <v>81200</v>
+        <v>8120</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>43</v>
@@ -1400,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="G27">
-        <v>126000</v>
+        <v>12600</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>43</v>
@@ -1426,7 +1426,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="1">
-        <v>180600</v>
+        <v>18060</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>43</v>
@@ -1452,7 +1452,7 @@
         <v>46</v>
       </c>
       <c r="G29" s="1">
-        <v>245000</v>
+        <v>24500</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>43</v>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -340,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +361,16 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,7 +717,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,7 +727,7 @@
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="12" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -740,7 +750,7 @@
       <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="H1" t="s">
@@ -769,7 +779,7 @@
       <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -798,7 +808,7 @@
       <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -827,7 +837,7 @@
       <c r="F5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>50</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -853,7 +863,7 @@
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>660</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -879,7 +889,7 @@
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>2565</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -905,7 +915,7 @@
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>6500</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -931,7 +941,7 @@
       <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -957,7 +967,7 @@
       <c r="F10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>75</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -983,7 +993,7 @@
       <c r="F11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <v>780</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1009,7 +1019,7 @@
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>2850</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1035,7 +1045,7 @@
       <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>7020</v>
       </c>
       <c r="H13" s="6" t="s">
@@ -1061,7 +1071,7 @@
       <c r="F14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>11220</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1087,7 +1097,7 @@
       <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>0</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1113,7 +1123,7 @@
       <c r="F16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="10">
         <v>105</v>
       </c>
       <c r="H16" s="6" t="s">
@@ -1139,7 +1149,7 @@
       <c r="F17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="10">
         <v>910</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1165,7 +1175,7 @@
       <c r="F18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>3150</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -1191,7 +1201,7 @@
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <v>7560</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -1217,7 +1227,7 @@
       <c r="F20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="10">
         <v>11900</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -1243,7 +1253,7 @@
       <c r="F21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="10">
         <v>17219.999999999996</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -1269,7 +1279,7 @@
       <c r="F22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -1295,7 +1305,7 @@
       <c r="F23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="10">
         <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -1321,7 +1331,7 @@
       <c r="F24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>1050</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -1347,7 +1357,7 @@
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="10">
         <v>3465</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -1373,7 +1383,7 @@
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>8120</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -1399,7 +1409,7 @@
       <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="10">
         <v>12600</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -1425,7 +1435,7 @@
       <c r="F28" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="12">
         <v>18060</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -1451,7 +1461,7 @@
       <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="12">
         <v>24500</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -1477,7 +1487,7 @@
       <c r="F30" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="s">

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -279,6 +279,10 @@
   </si>
   <si>
     <t>升级花费=房屋最后一个区域的升级花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -780,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>20</v>
@@ -1236,7 +1240,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B21">
         <v>3001</v>
@@ -1254,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="10">
-        <v>17219.999999999996</v>
+        <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>42</v>
@@ -1262,33 +1266,33 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3007</v>
+        <v>4001</v>
       </c>
       <c r="B22">
-        <v>3001</v>
+        <v>4001</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="B23">
         <v>4001</v>
@@ -1306,7 +1310,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="10">
-        <v>140</v>
+        <v>1050</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>43</v>
@@ -1314,7 +1318,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="B24">
         <v>4001</v>
@@ -1332,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="10">
-        <v>1050</v>
+        <v>3465</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>43</v>
@@ -1340,7 +1344,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="B25">
         <v>4001</v>
@@ -1358,7 +1362,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="10">
-        <v>3465</v>
+        <v>8120</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>43</v>
@@ -1366,7 +1370,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4004</v>
+        <v>4005</v>
       </c>
       <c r="B26">
         <v>4001</v>
@@ -1384,7 +1388,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="10">
-        <v>8120</v>
+        <v>12600</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>43</v>
@@ -1392,7 +1396,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="B27">
         <v>4001</v>
@@ -1409,8 +1413,8 @@
       <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="10">
-        <v>12600</v>
+      <c r="G27" s="12">
+        <v>18060</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>43</v>
@@ -1418,7 +1422,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="B28">
         <v>4001</v>
@@ -1436,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="12">
-        <v>18060</v>
+        <v>24500</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>43</v>
@@ -1444,7 +1448,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4007</v>
+        <v>4008</v>
       </c>
       <c r="B29">
         <v>4001</v>
@@ -1462,35 +1466,9 @@
         <v>46</v>
       </c>
       <c r="G29" s="12">
-        <v>24500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4008</v>
-      </c>
-      <c r="B30">
-        <v>4001</v>
-      </c>
-      <c r="C30">
-        <v>4</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>7</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6" t="s">
         <v>43</v>
       </c>
     </row>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -718,10 +718,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="B21">
         <v>3001</v>
@@ -1258,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="10">
-        <v>0</v>
+        <v>17220</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>42</v>
@@ -1266,33 +1266,33 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4001</v>
+        <v>3007</v>
       </c>
       <c r="B22">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B23">
         <v>4001</v>
@@ -1310,7 +1310,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="10">
-        <v>1050</v>
+        <v>140</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>43</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="B24">
         <v>4001</v>
@@ -1336,7 +1336,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="10">
-        <v>3465</v>
+        <v>1050</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>43</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="B25">
         <v>4001</v>
@@ -1362,7 +1362,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="10">
-        <v>8120</v>
+        <v>3465</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>43</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="B26">
         <v>4001</v>
@@ -1388,7 +1388,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="10">
-        <v>12600</v>
+        <v>8120</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>43</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="B27">
         <v>4001</v>
@@ -1413,8 +1413,8 @@
       <c r="F27" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G27" s="12">
-        <v>18060</v>
+      <c r="G27" s="10">
+        <v>12600</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>43</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="B28">
         <v>4001</v>
@@ -1440,7 +1440,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="12">
-        <v>24500</v>
+        <v>18060</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>43</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="B29">
         <v>4001</v>
@@ -1466,9 +1466,35 @@
         <v>46</v>
       </c>
       <c r="G29" s="12">
+        <v>24500</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4008</v>
+      </c>
+      <c r="B30">
+        <v>4001</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>43</v>
       </c>
     </row>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要的道具(道具id-数量|道具id-数量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpNeedItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -731,11 +743,11 @@
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="7" max="8" width="12.8984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -757,14 +769,17 @@
       <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -786,16 +801,19 @@
       <c r="G2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -815,14 +833,17 @@
       <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -844,11 +865,12 @@
       <c r="G5" s="10">
         <v>50</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -870,11 +892,12 @@
       <c r="G6" s="10">
         <v>660</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="10"/>
+      <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -896,11 +919,12 @@
       <c r="G7" s="10">
         <v>2565</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -922,11 +946,12 @@
       <c r="G8" s="10">
         <v>6500</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -948,11 +973,12 @@
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -974,11 +1000,12 @@
       <c r="G10" s="10">
         <v>75</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -1000,11 +1027,12 @@
       <c r="G11" s="10">
         <v>780</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -1026,11 +1054,12 @@
       <c r="G12" s="10">
         <v>2850</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1052,11 +1081,12 @@
       <c r="G13" s="10">
         <v>7020</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1078,11 +1108,12 @@
       <c r="G14" s="10">
         <v>11220</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -1104,11 +1135,12 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3001</v>
       </c>
@@ -1130,11 +1162,12 @@
       <c r="G16" s="10">
         <v>105</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3002</v>
       </c>
@@ -1156,11 +1189,12 @@
       <c r="G17" s="10">
         <v>910</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="10"/>
+      <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3003</v>
       </c>
@@ -1182,11 +1216,12 @@
       <c r="G18" s="10">
         <v>3150</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="10"/>
+      <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3004</v>
       </c>
@@ -1208,11 +1243,12 @@
       <c r="G19" s="10">
         <v>7560</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="10"/>
+      <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3005</v>
       </c>
@@ -1234,11 +1270,12 @@
       <c r="G20" s="10">
         <v>11900</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="10"/>
+      <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3006</v>
       </c>
@@ -1260,11 +1297,12 @@
       <c r="G21" s="10">
         <v>17220</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="10"/>
+      <c r="I21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3007</v>
       </c>
@@ -1286,11 +1324,12 @@
       <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4001</v>
       </c>
@@ -1312,11 +1351,12 @@
       <c r="G23" s="10">
         <v>140</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="10"/>
+      <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4002</v>
       </c>
@@ -1338,11 +1378,12 @@
       <c r="G24" s="10">
         <v>1050</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="10"/>
+      <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4003</v>
       </c>
@@ -1364,11 +1405,12 @@
       <c r="G25" s="10">
         <v>3465</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4004</v>
       </c>
@@ -1390,11 +1432,12 @@
       <c r="G26" s="10">
         <v>8120</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4005</v>
       </c>
@@ -1416,11 +1459,12 @@
       <c r="G27" s="10">
         <v>12600</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4006</v>
       </c>
@@ -1442,11 +1486,11 @@
       <c r="G28" s="12">
         <v>18060</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007</v>
       </c>
@@ -1468,11 +1512,11 @@
       <c r="G29" s="12">
         <v>24500</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4008</v>
       </c>
@@ -1494,7 +1538,7 @@
       <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>43</v>
       </c>
     </row>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -290,11 +290,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LevelUpNeedItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>升级需要的道具(道具id-数量|道具id-数量)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelUpNeedItem</t>
+    <t>4-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +797,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,7 +807,8 @@
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.3984375" style="8" customWidth="1"/>
-    <col min="7" max="8" width="12.8984375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="41.8984375" style="8" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -769,8 +834,8 @@
       <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>57</v>
+      <c r="H1" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>35</v>
@@ -801,7 +866,7 @@
       <c r="G2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -833,8 +898,8 @@
       <c r="G4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>56</v>
+      <c r="H4" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>36</v>
@@ -865,7 +930,9 @@
       <c r="G5" s="10">
         <v>50</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
@@ -892,7 +959,9 @@
       <c r="G6" s="10">
         <v>660</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
@@ -919,7 +988,9 @@
       <c r="G7" s="10">
         <v>2565</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
@@ -946,7 +1017,9 @@
       <c r="G8" s="10">
         <v>6500</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
@@ -973,7 +1046,9 @@
       <c r="G9" s="10">
         <v>0</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
@@ -1000,7 +1075,9 @@
       <c r="G10" s="10">
         <v>75</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1027,7 +1104,9 @@
       <c r="G11" s="10">
         <v>780</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1133,9 @@
       <c r="G12" s="10">
         <v>2850</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1081,7 +1162,9 @@
       <c r="G13" s="10">
         <v>7020</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
@@ -1108,7 +1191,9 @@
       <c r="G14" s="10">
         <v>11220</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
@@ -1135,7 +1220,9 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1162,7 +1249,9 @@
       <c r="G16" s="10">
         <v>105</v>
       </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1189,7 +1278,9 @@
       <c r="G17" s="10">
         <v>910</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1216,7 +1307,9 @@
       <c r="G18" s="10">
         <v>3150</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
@@ -1243,7 +1336,9 @@
       <c r="G19" s="10">
         <v>7560</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1365,9 @@
       <c r="G20" s="10">
         <v>11900</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1297,7 +1394,9 @@
       <c r="G21" s="10">
         <v>17220</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I21" s="6" t="s">
         <v>42</v>
       </c>
@@ -1324,7 +1423,9 @@
       <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H22" s="10"/>
+      <c r="H22" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1351,7 +1452,9 @@
       <c r="G23" s="10">
         <v>140</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1481,9 @@
       <c r="G24" s="10">
         <v>1050</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1405,7 +1510,9 @@
       <c r="G25" s="10">
         <v>3465</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1432,7 +1539,9 @@
       <c r="G26" s="10">
         <v>8120</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
@@ -1459,7 +1568,9 @@
       <c r="G27" s="10">
         <v>12600</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
@@ -1486,6 +1597,9 @@
       <c r="G28" s="12">
         <v>18060</v>
       </c>
+      <c r="H28" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
@@ -1511,6 +1625,9 @@
       </c>
       <c r="G29" s="12">
         <v>24500</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>43</v>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CITY\project\treasure\docs\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -361,11 +366,121 @@
     <t>4-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RoomPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GirlsPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>351-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>175</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;472-2;178-17;25-20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>368-310;230-332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348-254;187-0;184-139;30-142;473-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>348-254;187-0;184-139;30-142;473-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360-388;604-170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360-388;604-170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>338-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>367</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;180-64;185-238;28-253;268-0;470-150</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>372-488;606-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>338-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>367</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;180-64;185-238;28-253;268-0;470-150;496-0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>368-476;602-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -794,10 +909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,9 +925,11 @@
     <col min="7" max="7" width="12.8984375" style="12" customWidth="1"/>
     <col min="8" max="8" width="41.8984375" style="8" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="49.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -841,10 +958,16 @@
         <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -872,13 +995,19 @@
       <c r="I2" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -905,10 +1034,16 @@
         <v>36</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -936,8 +1071,14 @@
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -965,8 +1106,14 @@
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -994,8 +1141,14 @@
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -1023,8 +1176,14 @@
       <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -1052,8 +1211,14 @@
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -1081,8 +1246,14 @@
       <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -1110,8 +1281,14 @@
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -1139,8 +1316,14 @@
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1168,8 +1351,14 @@
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1197,8 +1386,14 @@
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2006</v>
       </c>
@@ -1226,8 +1421,14 @@
       <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3001</v>
       </c>
@@ -1255,8 +1456,14 @@
       <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3002</v>
       </c>
@@ -1284,8 +1491,14 @@
       <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3003</v>
       </c>
@@ -1313,8 +1526,14 @@
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3004</v>
       </c>
@@ -1342,8 +1561,14 @@
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3005</v>
       </c>
@@ -1371,8 +1596,14 @@
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3006</v>
       </c>
@@ -1400,8 +1631,14 @@
       <c r="I21" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3007</v>
       </c>
@@ -1429,8 +1666,14 @@
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4001</v>
       </c>
@@ -1458,8 +1701,14 @@
       <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4002</v>
       </c>
@@ -1487,8 +1736,14 @@
       <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4003</v>
       </c>
@@ -1516,8 +1771,14 @@
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4004</v>
       </c>
@@ -1545,8 +1806,14 @@
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4005</v>
       </c>
@@ -1574,8 +1841,14 @@
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4006</v>
       </c>
@@ -1603,8 +1876,14 @@
       <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007</v>
       </c>
@@ -1632,8 +1911,14 @@
       <c r="I29" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4008</v>
       </c>
@@ -1657,6 +1942,12 @@
       </c>
       <c r="I30" s="6" t="s">
         <v>43</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\CITY\project\treasure\docs\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -303,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -912,7 +903,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H26" activeCellId="9" sqref="H16 H15 H11 H10 H6 H5 H20 H21 H25 H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,10 +949,10 @@
         <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>52</v>
@@ -1034,10 +1025,10 @@
         <v>36</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>53</v>
@@ -1065,17 +1056,15 @@
       <c r="G5" s="10">
         <v>50</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1100,17 +1089,15 @@
       <c r="G6" s="10">
         <v>660</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1136,16 +1123,16 @@
         <v>2565</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1171,16 +1158,16 @@
         <v>6500</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1206,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1240,17 +1227,15 @@
       <c r="G10" s="10">
         <v>75</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1275,17 +1260,15 @@
       <c r="G11" s="10">
         <v>780</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1311,16 +1294,16 @@
         <v>2850</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1346,16 +1329,16 @@
         <v>7020</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1381,16 +1364,16 @@
         <v>11220</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1415,17 +1398,15 @@
       <c r="G15" s="10">
         <v>0</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H15" s="7"/>
       <c r="I15" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1450,17 +1431,15 @@
       <c r="G16" s="10">
         <v>105</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1486,16 +1465,16 @@
         <v>910</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1521,16 +1500,16 @@
         <v>3150</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1556,16 +1535,16 @@
         <v>7560</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1590,17 +1569,15 @@
       <c r="G20" s="10">
         <v>11900</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1625,17 +1602,15 @@
       <c r="G21" s="10">
         <v>17220</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1661,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1696,16 +1671,16 @@
         <v>140</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1731,16 +1706,16 @@
         <v>1050</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1765,17 +1740,15 @@
       <c r="G25" s="10">
         <v>3465</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H25" s="7"/>
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1800,17 +1773,15 @@
       <c r="G26" s="10">
         <v>8120</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>58</v>
-      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1836,16 +1807,16 @@
         <v>12600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1871,16 +1842,16 @@
         <v>18060</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1906,16 +1877,16 @@
         <v>24500</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1944,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -298,66 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoomPosition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +405,66 @@
   </si>
   <si>
     <t>368-476;602-276</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120004-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +903,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" activeCellId="9" sqref="H16 H15 H11 H10 H6 H5 H20 H21 H25 H26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -949,10 +949,10 @@
         <v>35</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>52</v>
@@ -1025,10 +1025,10 @@
         <v>36</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>53</v>
@@ -1061,10 +1061,10 @@
         <v>40</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1094,10 +1094,10 @@
         <v>40</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1123,16 +1123,16 @@
         <v>2565</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1158,16 +1158,16 @@
         <v>6500</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1232,10 +1232,10 @@
         <v>41</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1294,16 +1294,16 @@
         <v>2850</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1329,16 +1329,16 @@
         <v>7020</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1364,16 +1364,16 @@
         <v>11220</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1403,10 +1403,10 @@
         <v>41</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1436,10 +1436,10 @@
         <v>42</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1465,16 +1465,16 @@
         <v>910</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1500,16 +1500,16 @@
         <v>3150</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1535,16 +1535,16 @@
         <v>7560</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1574,10 +1574,10 @@
         <v>42</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,10 +1607,10 @@
         <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1671,16 +1671,16 @@
         <v>140</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1706,16 +1706,16 @@
         <v>1050</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1745,10 +1745,10 @@
         <v>43</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1778,10 +1778,10 @@
         <v>43</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1807,16 +1807,16 @@
         <v>12600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1842,16 +1842,16 @@
         <v>18060</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1877,16 +1877,16 @@
         <v>24500</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1915,10 +1915,10 @@
         <v>43</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -453,18 +453,6 @@
   </si>
   <si>
     <t>120004-53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120004-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120004-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120004-54</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,7 +891,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H25" sqref="H25:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1464,9 +1452,6 @@
       <c r="G17" s="10">
         <v>910</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="I17" s="6" t="s">
         <v>42</v>
       </c>
@@ -1500,7 +1485,7 @@
         <v>3150</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
@@ -1535,7 +1520,7 @@
         <v>7560</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
@@ -1569,7 +1554,9 @@
       <c r="G20" s="10">
         <v>11900</v>
       </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
@@ -1635,9 +1622,6 @@
       <c r="G22" s="10">
         <v>0</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="I22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1670,9 +1654,6 @@
       <c r="G23" s="10">
         <v>140</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="I23" s="6" t="s">
         <v>43</v>
       </c>
@@ -1705,9 +1686,6 @@
       <c r="G24" s="10">
         <v>1050</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="I24" s="6" t="s">
         <v>43</v>
       </c>
@@ -1740,7 +1718,9 @@
       <c r="G25" s="10">
         <v>3465</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
@@ -1773,7 +1753,9 @@
       <c r="G26" s="10">
         <v>8120</v>
       </c>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
@@ -1807,7 +1789,7 @@
         <v>12600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
@@ -1841,9 +1823,7 @@
       <c r="G28" s="12">
         <v>18060</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="H28" s="7"/>
       <c r="I28" s="6" t="s">
         <v>43</v>
       </c>
@@ -1876,9 +1856,7 @@
       <c r="G29" s="12">
         <v>24500</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="H29" s="7"/>
       <c r="I29" s="6" t="s">
         <v>43</v>
       </c>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -336,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>368-310;230-332</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>348-254;187-0;184-139;30-142;473-64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,6 +449,10 @@
   </si>
   <si>
     <t>120004-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>368-350;230-372</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,8 +890,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:H27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
         <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1111,7 +1111,7 @@
         <v>2565</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
@@ -1120,7 +1120,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>6500</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>40</v>
@@ -1155,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
@@ -1190,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1220,10 +1220,10 @@
         <v>41</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
         <v>41</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1282,16 +1282,16 @@
         <v>2850</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1317,16 +1317,16 @@
         <v>7020</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1352,16 +1352,16 @@
         <v>11220</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1391,10 +1391,10 @@
         <v>41</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1424,10 +1424,10 @@
         <v>42</v>
       </c>
       <c r="J16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1456,10 +1456,10 @@
         <v>42</v>
       </c>
       <c r="J17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1485,16 +1485,16 @@
         <v>3150</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,16 +1520,16 @@
         <v>7560</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1555,16 +1555,16 @@
         <v>11900</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1594,10 +1594,10 @@
         <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,10 +1626,10 @@
         <v>42</v>
       </c>
       <c r="J22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1658,10 +1658,10 @@
         <v>43</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1690,10 +1690,10 @@
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1719,16 +1719,16 @@
         <v>3465</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1754,16 +1754,16 @@
         <v>8120</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,16 +1789,16 @@
         <v>12600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1828,10 +1828,10 @@
         <v>43</v>
       </c>
       <c r="J28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1861,10 +1861,10 @@
         <v>43</v>
       </c>
       <c r="J29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1893,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -452,7 +452,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>368-350;230-372</t>
+    <t>318-450;180-472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>318-350;180-472</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +895,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1159,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1190,7 +1194,7 @@
         <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -452,11 +452,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>318-450;180-472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>318-350;180-472</t>
+    <t>318-550;180-572</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +891,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1194,7 +1190,7 @@
         <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">

--- a/docs/excel/THouse.xlsx
+++ b/docs/excel/THouse.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -344,14 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>360-388;604-170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>360-388;604-170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>338-</t>
     </r>
@@ -374,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>372-488;606-276</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>338-</t>
     </r>
@@ -397,10 +385,6 @@
       </rPr>
       <t>;180-64;185-238;28-253;268-0;470-150;496-0</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>368-476;602-276</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -891,7 +875,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1036,7 @@
         <v>62</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1085,7 +1069,7 @@
         <v>62</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1111,7 +1095,7 @@
         <v>2565</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>40</v>
@@ -1120,7 +1104,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1146,7 +1130,7 @@
         <v>6500</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>40</v>
@@ -1155,7 +1139,7 @@
         <v>62</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1181,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>40</v>
@@ -1190,7 +1174,7 @@
         <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1223,7 +1207,7 @@
         <v>64</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1256,7 +1240,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1282,7 +1266,7 @@
         <v>2850</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>41</v>
@@ -1291,7 +1275,7 @@
         <v>63</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1317,7 +1301,7 @@
         <v>7020</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>41</v>
@@ -1326,7 +1310,7 @@
         <v>63</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1352,7 +1336,7 @@
         <v>11220</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>41</v>
@@ -1361,7 +1345,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1394,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1424,10 +1408,10 @@
         <v>42</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1456,10 +1440,10 @@
         <v>42</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -1485,16 +1469,16 @@
         <v>3150</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1520,16 +1504,16 @@
         <v>7560</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -1555,16 +1539,16 @@
         <v>11900</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1594,10 +1578,10 @@
         <v>42</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -1626,10 +1610,10 @@
         <v>42</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -1658,10 +1642,10 @@
         <v>43</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1690,10 +1674,10 @@
         <v>43</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1719,16 +1703,16 @@
         <v>3465</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -1754,16 +1738,16 @@
         <v>8120</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -1789,16 +1773,16 @@
         <v>12600</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -1828,10 +1812,10 @@
         <v>43</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -1861,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -1893,10 +1877,10 @@
         <v>43</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
